--- a/result/RQ3result.xlsx
+++ b/result/RQ3result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA86F4-5C89-4043-ABC9-4AB593775E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14143304-CEB0-49A0-AC30-AA00CBC324E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>RQ3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,26 @@
   </si>
   <si>
     <t>tfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>G6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,7 +296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>G7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -345,7 +365,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>G8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,7 +432,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>G9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -481,7 +501,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>G10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1445,7 +1465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>G6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1514,7 +1534,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>G7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1583,7 +1603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>G8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1650,7 +1670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>G9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1719,7 +1739,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>G10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5090,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5124,7 +5144,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -5138,7 +5158,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -5152,7 +5172,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -5166,7 +5186,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -5180,7 +5200,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -5291,7 +5311,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39">
@@ -5305,7 +5325,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40">
@@ -5319,7 +5339,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41">
@@ -5333,7 +5353,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42">
@@ -5347,7 +5367,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43">

--- a/result/RQ3result.xlsx
+++ b/result/RQ3result.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14143304-CEB0-49A0-AC30-AA00CBC324E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E1BDC-02CA-4479-A43F-0D6F6FB30DF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,6 +126,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3B6890"/>
+      <color rgb="FF4476A3"/>
+      <color rgb="FF4B82B3"/>
+      <color rgb="FF528CC1"/>
+      <color rgb="FF5896CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -151,67 +160,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-              <a:t>BLEU of seq2seq</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
-              <a:t> model in different training sets </a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -234,9 +183,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="54000"/>
-              </a:schemeClr>
+              <a:srgbClr val="5896CE"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -303,9 +250,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
-              </a:schemeClr>
+              <a:srgbClr val="528CC1"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -372,7 +317,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4B82B3"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -451,6 +396,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4476A3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-4066-4E78-9B9B-631C23349906}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4476A3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4066-4E78-9B9B-631C23349906}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4476A3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-4066-4E78-9B9B-631C23349906}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$4:$D$4</c:f>
@@ -508,9 +516,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="53000"/>
-              </a:schemeClr>
+              <a:srgbClr val="3B6890"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -570,7 +576,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="1256936335"/>
         <c:axId val="1257467103"/>
       </c:barChart>
@@ -603,7 +608,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -662,7 +667,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -704,7 +709,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -771,685 +776,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>BLEU of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> seq2seq model in different training sets</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="53000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.29896133354393201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28674685185879101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29918759190139699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24C3-4632-9725-1869EFA8B397}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="76000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.31524016778681802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32798435730182901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.325450798891668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-24C3-4632-9725-1869EFA8B397}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$17:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.29444826817690001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30721562994958102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.320082492165154</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-24C3-4632-9725-1869EFA8B397}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.216987600304508</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32646221090934002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34303109843950402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-24C3-4632-9725-1869EFA8B397}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.20928675169473401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.227863705959442</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39851811568321399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-24C3-4632-9725-1869EFA8B397}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1259696783"/>
-        <c:axId val="1255320943"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1259696783"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1255320943"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1255320943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1259696783"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
-              <a:t>BLEU of transformer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1" baseline="0"/>
-              <a:t> model in different training sets</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14084166445486446"/>
-          <c:y val="3.2350431504703889E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1472,9 +799,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="54000"/>
-              </a:schemeClr>
+              <a:srgbClr val="5896CE"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -1541,9 +866,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
-              </a:schemeClr>
+              <a:srgbClr val="528CC1"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -1610,7 +933,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4B82B3"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -1677,9 +1000,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="76000"/>
-              </a:schemeClr>
+              <a:srgbClr val="4476A3"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -1746,9 +1067,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="53000"/>
-              </a:schemeClr>
+              <a:srgbClr val="3B6890"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -1808,7 +1127,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="1256184687"/>
         <c:axId val="1255328015"/>
       </c:barChart>
@@ -1841,7 +1159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1900,7 +1218,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1942,617 +1260,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>BLEU of transformer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> model in different training sets</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="53000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$55:$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$56:$D$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.31729347497207999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32645959409927799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31675990160645701</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78D9-4070-A758-A16BE2ACD821}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="76000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$55:$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$57:$D$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.34354702062529502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35029337047444797</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34672623965099603</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-78D9-4070-A758-A16BE2ACD821}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$55:$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$58:$D$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.318236541955423</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34717627471190898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34151669869059598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-78D9-4070-A758-A16BE2ACD821}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$55:$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$59:$D$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.220461202497273</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.361356063265526</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34317968808598598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-78D9-4070-A758-A16BE2ACD821}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$55:$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>H-training (3-10)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M-training (2-9)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>L-training (1-8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$60:$D$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.187156348227525</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22390744787608699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39202533020642799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-78D9-4070-A758-A16BE2ACD821}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1334966767"/>
-        <c:axId val="1184401679"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1334966767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184401679"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1184401679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1334966767"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2612,19 +1320,7 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
@@ -3635,1026 +2331,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323135</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4681,52 +2371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380997</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B0D495-B51C-4788-9BB9-85F1E41E9E6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>490496</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>17932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4745,43 +2399,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA15CC50-583A-4D3F-8190-5ABDF9795E0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5110,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5120,6 +2738,12 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="5" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
